--- a/dev/fhir-ig/ValueSet-onconova-vs-adverse-event-mitigation-managements.xlsx
+++ b/dev/fhir-ig/ValueSet-onconova-vs-adverse-event-mitigation-managements.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:09:08+00:00</t>
+    <t>2025-10-09T11:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/ValueSet-onconova-vs-adverse-event-mitigation-managements.xlsx
+++ b/dev/fhir-ig/ValueSet-onconova-vs-adverse-event-mitigation-managements.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:26:42+00:00</t>
+    <t>2025-10-09T11:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/ValueSet-onconova-vs-adverse-event-mitigation-managements.xlsx
+++ b/dev/fhir-ig/ValueSet-onconova-vs-adverse-event-mitigation-managements.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:30:09+00:00</t>
+    <t>2025-10-09T11:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/ValueSet-onconova-vs-adverse-event-mitigation-managements.xlsx
+++ b/dev/fhir-ig/ValueSet-onconova-vs-adverse-event-mitigation-managements.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:39:09+00:00</t>
+    <t>2025-10-09T11:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/ValueSet-onconova-vs-adverse-event-mitigation-managements.xlsx
+++ b/dev/fhir-ig/ValueSet-onconova-vs-adverse-event-mitigation-managements.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:50:35+00:00</t>
+    <t>2025-10-15T08:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
